--- a/DATA_goal/Junction_Flooding_85.xlsx
+++ b/DATA_goal/Junction_Flooding_85.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41517.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.15</v>
+        <v>4.51</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.34</v>
+        <v>3.73</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.35</v>
+        <v>5.54</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.79</v>
+        <v>1.88</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>249.02</v>
+        <v>24.9</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.88</v>
+        <v>4.69</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31</v>
+        <v>3.1</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.54</v>
+        <v>2.75</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>48.95</v>
+        <v>4.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41517.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.91</v>
+        <v>2.39</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>69.40000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41517.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.98</v>
+        <v>2.3</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>120.84</v>
+        <v>12.08</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.49</v>
+        <v>2.35</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.55</v>
+        <v>1.56</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.74</v>
+        <v>2.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41517.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.63</v>
+        <v>2.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.51</v>
+        <v>1.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>105.98</v>
+        <v>10.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.84</v>
+        <v>2.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.85</v>
+        <v>2.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41517.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.3</v>
-      </c>
       <c r="AA6" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -1175,37 +1175,37 @@
         <v>41517.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -1214,64 +1214,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AB7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.92</v>
-      </c>
       <c r="AG7" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41517.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>39.52</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>8.09</v>
-      </c>
       <c r="K8" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>172.79</v>
+        <v>17.28</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.79</v>
+        <v>3.28</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19.91</v>
+        <v>1.99</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>35.48</v>
+        <v>3.55</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41517.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>25.76</v>
+        <v>2.58</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>36.83</v>
+        <v>3.68</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>134.87</v>
+        <v>13.49</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>26.12</v>
+        <v>2.61</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>17.55</v>
+        <v>1.75</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>33.67</v>
+        <v>3.37</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41517.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q10" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>4.68</v>
-      </c>
       <c r="R10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>76.43000000000001</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>2.83</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_85.xlsx
+++ b/DATA_goal/Junction_Flooding_85.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,10 +444,10 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -463,7 +463,7 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41517.34027777778</v>
+        <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.15</v>
+        <v>0.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.62</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.51</v>
+        <v>1.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.73</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>1.69</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41517.34722222222</v>
+        <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="H3" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.78</v>
-      </c>
       <c r="J3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.62</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41517.35416666666</v>
+        <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.2</v>
+        <v>3.82</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.08</v>
+        <v>14.72</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.35</v>
+        <v>2.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41517.36111111111</v>
+        <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q5" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.64</v>
-      </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.6</v>
+        <v>12.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.69</v>
+        <v>3.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41517.36805555555</v>
+        <v>44782.74304398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.16</v>
+        <v>14.79</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.09</v>
+        <v>11.06</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.91</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.33</v>
+        <v>32.4</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.27</v>
+        <v>26.38</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.13</v>
+        <v>11.37</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.98</v>
+        <v>44.71</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.2</v>
+        <v>17.97</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.09</v>
+        <v>8.15</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.11</v>
+        <v>11.66</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.14</v>
+        <v>12.99</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.14</v>
+        <v>13.86</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.04</v>
+        <v>3.87</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.13</v>
+        <v>11.65</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.19</v>
+        <v>16.49</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.13</v>
+        <v>9.9</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>1.22</v>
+        <v>170.07</v>
       </c>
       <c r="U6" s="4" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="V6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>0.93</v>
+        <v>40.64</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.06</v>
+        <v>6.02</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41517.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41517.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.28</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41517.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41517.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41517.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>37.94</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>147.32</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>34.34</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>11.71</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_85.xlsx
+++ b/DATA_goal/Junction_Flooding_85.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -655,103 +655,103 @@
         <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.07</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.35</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.81</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.22</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.26</v>
+        <v>22.64</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.29</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.72</v>
+        <v>147.17</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.84</v>
+        <v>28.35</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.46</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.69</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.95</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.48</v>
+        <v>34.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.4</v>
+        <v>24.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.45</v>
+        <v>34.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.43</v>
+        <v>124.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.42</v>
+        <v>24.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.21</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_85.xlsx
+++ b/DATA_goal/Junction_Flooding_85.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.92</v>
+        <v>8.919</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.387</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.84</v>
+        <v>19.843</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>6.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.26</v>
+        <v>26.262</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.97</v>
+        <v>10.969</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>4.89</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.45</v>
+        <v>6.447</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.91</v>
+        <v>7.906</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.615</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.61</v>
+        <v>2.609</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.82</v>
+        <v>9.821999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.47</v>
+        <v>6.474</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.551</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.39</v>
+        <v>101.394</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.98</v>
+        <v>19.975</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.95</v>
+        <v>12.951</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.95</v>
+        <v>6.953</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.07</v>
+        <v>14.069</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.35</v>
+        <v>5.346</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>6.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.458</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.17</v>
+        <v>24.165</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>3.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.81</v>
+        <v>12.812</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.526</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.131</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.22</v>
+        <v>28.219</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.64</v>
+        <v>22.641</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.66</v>
+        <v>9.661</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>38.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.63</v>
+        <v>15.632</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.06</v>
+        <v>7.057</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.85</v>
+        <v>9.853999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.29</v>
+        <v>11.294</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.12</v>
+        <v>12.125</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.47</v>
+        <v>3.473</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.23</v>
+        <v>14.232</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.804</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.549</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.17</v>
+        <v>147.174</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.35</v>
+        <v>28.353</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.8</v>
+        <v>18.805</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.962</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.307</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>19.46</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.43</v>
+        <v>7.432</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.69</v>
+        <v>8.686999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>11.95</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.8</v>
+        <v>34.799</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.16</v>
+        <v>5.157</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.71</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>170.07</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_85.xlsx
+++ b/DATA_goal/Junction_Flooding_85.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,79 +967,79 @@
         <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.92</v>
+        <v>10.922</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.135999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.04</v>
+        <v>24.041</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.36</v>
+        <v>19.362</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.27</v>
+        <v>8.269</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.48</v>
+        <v>34.482</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.31</v>
+        <v>13.313</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.05</v>
+        <v>6.053</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.445</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.629</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.32</v>
+        <v>10.324</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.16</v>
+        <v>12.156</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.47</v>
+        <v>7.468</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.29</v>
+        <v>124.294</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.22</v>
+        <v>24.216</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>16.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.49</v>
+        <v>8.493</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.21</v>
+        <v>17.215</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>7.05</v>
@@ -1048,22 +1048,126 @@
         <v>6.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.4</v>
+        <v>7.399</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>10.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.5</v>
+        <v>31.499</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.41</v>
+        <v>4.407</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>170.07</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_85.xlsx
+++ b/DATA_goal/Junction_Flooding_85.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,79 +967,79 @@
         <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.922</v>
+        <v>10.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.135999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.885</v>
+        <v>0.88</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.041</v>
+        <v>24.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.362</v>
+        <v>19.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.269</v>
+        <v>8.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.482</v>
+        <v>34.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.313</v>
+        <v>13.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.053</v>
+        <v>6.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.445</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.629</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.324</v>
+        <v>10.32</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.647</v>
+        <v>8.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.156</v>
+        <v>12.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.468</v>
+        <v>7.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.294</v>
+        <v>124.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.216</v>
+        <v>24.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.982</v>
+        <v>7.98</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>16.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.493</v>
+        <v>8.49</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.215</v>
+        <v>17.21</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>7.05</v>
@@ -1048,126 +1048,22 @@
         <v>6.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.399</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>10.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.499</v>
+        <v>31.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.407</v>
+        <v>4.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.978999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>170.07</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.45</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>
